--- a/Test Tesi/Operazioni/Sottrazione/11col.xlsx
+++ b/Test Tesi/Operazioni/Sottrazione/11col.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t xml:space="preserve">I</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Diff Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOTTRAZIONE</t>
   </si>
   <si>
     <t xml:space="preserve">OGNI RIGA DEL DATASET CONSTA DI 11 COLONNE!!!</t>
@@ -80,13 +83,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="hh:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="169" formatCode="[hh]:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="hh:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="[hh]:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -213,12 +215,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -237,7 +243,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -245,19 +259,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -517,441 +519,423 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
+      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>32325918720</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>32407445504</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="1" t="n">
         <f aca="false">C2-B2</f>
         <v>81526784</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="1" t="n">
         <f aca="false">D2</f>
         <v>81526784</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="2"/>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>32407445504</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>32534585344</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="1" t="n">
         <f aca="false">C3-B3</f>
         <v>127139840</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="1" t="n">
         <f aca="false">D3+E2</f>
         <v>208666624</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>32534585344</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>32564469760</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="1" t="n">
         <f aca="false">C4-B4</f>
         <v>29884416</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="1" t="n">
         <f aca="false">D4+E3</f>
         <v>238551040</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>32564469760</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>32459612160</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="1" t="n">
         <f aca="false">C5-B5</f>
         <v>-104857600</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="1" t="n">
         <f aca="false">D5+E4</f>
         <v>133693440</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="I5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>32459612160</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>32487399424</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="1" t="n">
         <f aca="false">C6-B6</f>
         <v>27787264</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="1" t="n">
         <f aca="false">D6+E5</f>
         <v>161480704</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="I6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>32487399424</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>32512565248</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="1" t="n">
         <f aca="false">C7-B7</f>
         <v>25165824</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="1" t="n">
         <f aca="false">D7+E6</f>
         <v>186646528</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="I7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>32512565248</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>32475996160</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="1" t="n">
         <f aca="false">C8-B8</f>
         <v>-36569088</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="1" t="n">
         <f aca="false">D8+E7</f>
         <v>150077440</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="I8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>32475996160</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>32519249920</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="1" t="n">
         <f aca="false">C9-B9</f>
         <v>43253760</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="1" t="n">
         <f aca="false">D9+E8</f>
         <v>193331200</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>32519249920</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>32547168256</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="1" t="n">
         <f aca="false">C10-B10</f>
         <v>27918336</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="1" t="n">
         <f aca="false">D10+E9</f>
         <v>221249536</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>32547168256</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>32593305600</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="1" t="n">
         <f aca="false">C11-B11</f>
         <v>46137344</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="1" t="n">
         <f aca="false">D11+E10</f>
         <v>267386880</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="2" t="n">
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1" t="n">
         <v>700</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>32593305600</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>32542810112</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="1" t="n">
         <f aca="false">C12-B12</f>
         <v>-50495488</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="1" t="n">
         <f aca="false">D12+E11</f>
         <v>216891392</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7" t="n">
+      <c r="H13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="8" t="n">
         <f aca="false">AVERAGE(D2:D12)</f>
         <v>19717399.2727273</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="8" t="n">
-        <f aca="false">I13/I10</f>
-        <v>1792490.84297521</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <f aca="false">I13/I11</f>
+        <v>28167.7132467533</v>
+      </c>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="9" t="n">
+      <c r="H14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="10" t="n">
         <f aca="false">STDEV(D2:D12)</f>
         <v>63635159.1821558</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="6"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2" t="s">
+      <c r="H18" s="7"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="10" t="n">
+      <c r="H19" s="11" t="n">
         <v>0.435231481481482</v>
       </c>
       <c r="I19" s="11" t="n">
         <v>0.43619212962963</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="12" t="n">
         <f aca="false">I19-H19</f>
         <v>0.000960648148148148</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2" t="n">
-        <f aca="false">K19*86400/(I11)</f>
-        <v>0.118571428571429</v>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1" t="n">
+        <f aca="false">K19*86400/(I11*I10)</f>
+        <v>0.0107792207792208</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="I5:N5"/>
